--- a/Software Specification/Traceability/PO2EBL_ELECTRIC_BLENDER_RTM.xlsx
+++ b/Software Specification/Traceability/PO2EBL_ELECTRIC_BLENDER_RTM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Requirment ID</t>
   </si>
@@ -50,12 +50,6 @@
     <t>HSI Status</t>
   </si>
   <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>Released</t>
-  </si>
-  <si>
     <t>Req_PO2EBL_CRS_01_V01</t>
   </si>
   <si>
@@ -84,13 +78,34 @@
   </si>
   <si>
     <t>REQ_PO2EBL_SRS_03_V01</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>REQ_PO2EBL_HSI_01_V01</t>
+  </si>
+  <si>
+    <t>REQ_PO2EBL_HSI_02_V01</t>
+  </si>
+  <si>
+    <t>REQ_PO2EBL_HSI_05_V01</t>
+  </si>
+  <si>
+    <t>REQ_PO2EBL_CYRS_03_V1.3</t>
+  </si>
+  <si>
+    <t>REQ_PO2EBL_HSI_03_V01</t>
+  </si>
+  <si>
+    <t>REQ_PO2EBL_HSI_04_V01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +136,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +270,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,102 +612,125 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
